--- a/biology/Zoologie/Bernd_Heinrich/Bernd_Heinrich.xlsx
+++ b/biology/Zoologie/Bernd_Heinrich/Bernd_Heinrich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernd Heinrich (né le 9 avril 1940 à Połczyn-Zdrój dans l'actuelle Pologne, mais à cette époque en Allemagne), est un professeur du département de biologie à l'université du Vermont aux États-Unis. Il est l'auteur de plusieurs ouvrages sur le comportement, la biologie, l'écologie et évolution.
 C'est un spécialiste de la physiologie et des comportements des insectes, mais aussi du comportement des oiseaux. Ses nombreuses années de recherche sur les corbeaux ont abouti à de nombreux articles scientifiques sur le comportement des corbeaux et à deux ouvrages plaçant la recherche dans un contexte plus large. Il a gagné la Médaille John Burroughs pour son Mind of the raven, littéralement de l'anglais : « Esprit des corbeaux ».
@@ -513,7 +525,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bumblebee Economics (1979)
 In a Patch of Fireweed (1984)
